--- a/data/trans_orig/P57B5_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57B5_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>148856</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>127623</v>
+        <v>126431</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>172473</v>
+        <v>172358</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2594013101330619</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2223991155480106</v>
+        <v>0.2203219210230974</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3005564064429427</v>
+        <v>0.300356802262419</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>225</v>
@@ -762,19 +762,19 @@
         <v>147314</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>129557</v>
+        <v>131189</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>166180</v>
+        <v>169015</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1806108735365403</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1588401396224014</v>
+        <v>0.1608419506990774</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2037413873282317</v>
+        <v>0.2072179687166293</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>379</v>
@@ -783,19 +783,19 @@
         <v>296170</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>269581</v>
+        <v>270442</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>326276</v>
+        <v>324456</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2131506226312693</v>
+        <v>0.2131506226312692</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1940152508975897</v>
+        <v>0.1946342215627659</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.234817831419238</v>
+        <v>0.2335080555192373</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>226440</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>203407</v>
+        <v>202332</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>250366</v>
+        <v>247499</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3946015791197073</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3544629809661151</v>
+        <v>0.352589475809011</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4362955813006339</v>
+        <v>0.4312990591545068</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>503</v>
@@ -833,19 +833,19 @@
         <v>293806</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>274054</v>
+        <v>272873</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>315778</v>
+        <v>314123</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.360214482842459</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3359979396015391</v>
+        <v>0.3345499164440036</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3871530842497456</v>
+        <v>0.3851239390316498</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>769</v>
@@ -854,19 +854,19 @@
         <v>520246</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>489558</v>
+        <v>489264</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>551438</v>
+        <v>550848</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.374416047566462</v>
+        <v>0.3744160475664619</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3523303495196936</v>
+        <v>0.3521184419019661</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3968648924175082</v>
+        <v>0.3964403835919325</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>145044</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>125242</v>
+        <v>126139</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>163893</v>
+        <v>164289</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2527584365154744</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2182509699359155</v>
+        <v>0.2198134530643278</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2856053469611073</v>
+        <v>0.2862944358219038</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>441</v>
@@ -904,19 +904,19 @@
         <v>244710</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>225123</v>
+        <v>225094</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>266126</v>
+        <v>265732</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3000219089277501</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2760070675179587</v>
+        <v>0.2759722398391865</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3262787550817555</v>
+        <v>0.3257947134345587</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>635</v>
@@ -925,19 +925,19 @@
         <v>389754</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>360728</v>
+        <v>361067</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>416930</v>
+        <v>417726</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.280502515457236</v>
+        <v>0.2805025154572359</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2596124582681615</v>
+        <v>0.2598564725696321</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3000606178956274</v>
+        <v>0.3006337919128781</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>53505</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>42304</v>
+        <v>42419</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>68239</v>
+        <v>68219</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09323867423175641</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07372059398678245</v>
+        <v>0.07392123937295095</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1189161238361634</v>
+        <v>0.118880658243333</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>246</v>
@@ -975,19 +975,19 @@
         <v>129811</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>114428</v>
+        <v>113005</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>145178</v>
+        <v>145537</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1591527346932506</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1402917164543864</v>
+        <v>0.1385478633640685</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1779931316063271</v>
+        <v>0.1784331551230972</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>317</v>
@@ -996,19 +996,19 @@
         <v>183316</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>164152</v>
+        <v>163011</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>205006</v>
+        <v>202061</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.1319308143450328</v>
+        <v>0.1319308143450327</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1181386661469488</v>
+        <v>0.1173176389595403</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1475406583010311</v>
+        <v>0.1454212819267917</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>987812</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>937448</v>
+        <v>933338</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1044381</v>
+        <v>1043699</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4433528799575179</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4207484137108402</v>
+        <v>0.4189039016876459</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4687425393142473</v>
+        <v>0.4684363581772126</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>871</v>
@@ -1121,19 +1121,19 @@
         <v>750364</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>705186</v>
+        <v>706923</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>789577</v>
+        <v>790616</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3461038040220473</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3252654717791392</v>
+        <v>0.3260668073485778</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3641908435090336</v>
+        <v>0.3646698410514133</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1647</v>
@@ -1142,19 +1142,19 @@
         <v>1738176</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1669257</v>
+        <v>1667240</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1812177</v>
+        <v>1805472</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.3953921957499431</v>
+        <v>0.3953921957499432</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3797149660341979</v>
+        <v>0.3792561007273433</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4122255877209809</v>
+        <v>0.4107004261808566</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>867546</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>812534</v>
+        <v>812343</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>916217</v>
+        <v>919557</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3893749299746113</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3646840875042218</v>
+        <v>0.3645983409710165</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4112195728279676</v>
+        <v>0.4127185225747729</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1281</v>
@@ -1192,19 +1192,19 @@
         <v>939545</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>892712</v>
+        <v>896621</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>982407</v>
+        <v>982897</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4333633435721241</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4117614929300607</v>
+        <v>0.413564559807032</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.453133478246408</v>
+        <v>0.4533591460207533</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2087</v>
@@ -1213,19 +1213,19 @@
         <v>1807092</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1735396</v>
+        <v>1738771</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1874690</v>
+        <v>1879949</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4110688575831615</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3947599212324397</v>
+        <v>0.3955275740558958</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4264459214206053</v>
+        <v>0.4276420584589437</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>312363</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>282191</v>
+        <v>282168</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>349278</v>
+        <v>347084</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1401959556653951</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1266538127894715</v>
+        <v>0.1266437277419464</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1567640283587417</v>
+        <v>0.1557791457575581</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>647</v>
@@ -1263,19 +1263,19 @@
         <v>397717</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>366011</v>
+        <v>369710</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>428401</v>
+        <v>429725</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1834460784595011</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1688219283672092</v>
+        <v>0.1705281723894266</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1975992117629997</v>
+        <v>0.1982098690160289</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>990</v>
@@ -1284,19 +1284,19 @@
         <v>710080</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>663278</v>
+        <v>663901</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>755880</v>
+        <v>754091</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.161525777684921</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1508793954211916</v>
+        <v>0.1510211294622138</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1719439995801153</v>
+        <v>0.1715371866949386</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>60327</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>46426</v>
+        <v>46489</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>79312</v>
+        <v>78276</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02707623440247579</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02083717114077726</v>
+        <v>0.02086536362881398</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03559691248583691</v>
+        <v>0.03513218021264997</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>117</v>
@@ -1334,19 +1334,19 @@
         <v>80405</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>65881</v>
+        <v>65852</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>97249</v>
+        <v>96904</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0370867739463275</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03038760720201056</v>
+        <v>0.03037392161035946</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04485599046635048</v>
+        <v>0.04469674411721738</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>180</v>
@@ -1355,19 +1355,19 @@
         <v>140732</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>118524</v>
+        <v>120230</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>160655</v>
+        <v>162196</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0320131689819744</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02696134192587666</v>
+        <v>0.02734928363125048</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03654514456798461</v>
+        <v>0.03689554128631039</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>298575</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>267558</v>
+        <v>272018</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>328226</v>
+        <v>329526</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4195905472250173</v>
+        <v>0.4195905472250172</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.376002206289008</v>
+        <v>0.3822697136090749</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4612585420779814</v>
+        <v>0.4630855797938714</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>324</v>
@@ -1480,19 +1480,19 @@
         <v>260515</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>237595</v>
+        <v>239127</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>282799</v>
+        <v>285728</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3545014753118942</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3233120882211575</v>
+        <v>0.3253971807137615</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3848243492965561</v>
+        <v>0.3888102504775303</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>579</v>
@@ -1501,19 +1501,19 @@
         <v>559090</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>518306</v>
+        <v>518812</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>595931</v>
+        <v>596988</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3865219953174129</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3583265515929806</v>
+        <v>0.3586762052361031</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4119913480521618</v>
+        <v>0.4127221843858362</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>292119</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>263331</v>
+        <v>263477</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>319785</v>
+        <v>319951</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4105173966835929</v>
+        <v>0.410517396683593</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3700610046389905</v>
+        <v>0.3702673533682077</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.449397593887519</v>
+        <v>0.4496297824710023</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>468</v>
@@ -1551,19 +1551,19 @@
         <v>323399</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>300861</v>
+        <v>301236</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>348021</v>
+        <v>348416</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.4400720754279933</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.4094028787973656</v>
+        <v>0.4099139252276818</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4735776118168284</v>
+        <v>0.4741146269678542</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>770</v>
@@ -1572,19 +1572,19 @@
         <v>615518</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>574718</v>
+        <v>577151</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>656304</v>
+        <v>653980</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.4255326734335251</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3973264636766367</v>
+        <v>0.3990079123974842</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4537301738456424</v>
+        <v>0.4521235302991449</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>92466</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>76116</v>
+        <v>76045</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>112552</v>
+        <v>112369</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1299430952087828</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1069669160734951</v>
+        <v>0.1068665052890358</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.158169876527953</v>
+        <v>0.1579136085747722</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>172</v>
@@ -1622,19 +1622,19 @@
         <v>120789</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>102905</v>
+        <v>103654</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>139712</v>
+        <v>141203</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1643667548979248</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1400299517149486</v>
+        <v>0.1410494874569036</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1901154890085756</v>
+        <v>0.1921454559856334</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>274</v>
@@ -1643,19 +1643,19 @@
         <v>213255</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>187734</v>
+        <v>186490</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>238822</v>
+        <v>239335</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1474320613873065</v>
+        <v>0.1474320613873064</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.129788397331337</v>
+        <v>0.1289282141157993</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.165107342582366</v>
+        <v>0.1654619840466133</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>28427</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>18002</v>
+        <v>18058</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>44609</v>
+        <v>44239</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.03994896088260697</v>
+        <v>0.03994896088260696</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02529852996917989</v>
+        <v>0.0253766035800228</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06268929463722965</v>
+        <v>0.06216982764793374</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>40</v>
@@ -1693,19 +1693,19 @@
         <v>30174</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>21274</v>
+        <v>21954</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>41403</v>
+        <v>41028</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04105969436218756</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02894839459230598</v>
+        <v>0.02987393959646414</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05634048245291283</v>
+        <v>0.05582965243548257</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>62</v>
@@ -1714,19 +1714,19 @@
         <v>58601</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>44474</v>
+        <v>45466</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>79013</v>
+        <v>76926</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.04051326986175558</v>
+        <v>0.04051326986175557</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03074651536783165</v>
+        <v>0.03143274804708383</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05462503656229055</v>
+        <v>0.05318204925443182</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>1435243</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1359813</v>
+        <v>1369724</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>1494983</v>
+        <v>1502935</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4084960819346943</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3870273095522046</v>
+        <v>0.3898480663447307</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4254990232732407</v>
+        <v>0.4277623122981422</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1420</v>
@@ -1839,19 +1839,19 @@
         <v>1158192</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1111311</v>
+        <v>1101917</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>1211425</v>
+        <v>1211452</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.311463546308534</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2988560049128241</v>
+        <v>0.2963298348390274</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3257789500837242</v>
+        <v>0.3257862421592163</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2605</v>
@@ -1860,19 +1860,19 @@
         <v>2593436</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2506916</v>
+        <v>2505619</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>2689650</v>
+        <v>2684440</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3586041140806142</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3466406527012682</v>
+        <v>0.3464614020013683</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3719079987216548</v>
+        <v>0.3711875802923483</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>1386105</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1326377</v>
+        <v>1322406</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1447489</v>
+        <v>1450741</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3945105753714552</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3775107288095942</v>
+        <v>0.3763806828116262</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4119815204816492</v>
+        <v>0.4129071646550669</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2252</v>
@@ -1910,19 +1910,19 @@
         <v>1556750</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1506194</v>
+        <v>1502910</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1612969</v>
+        <v>1606650</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.418644407269557</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.405048867449374</v>
+        <v>0.404165609330912</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4337630193595634</v>
+        <v>0.4320635728848763</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3626</v>
@@ -1931,19 +1931,19 @@
         <v>2942855</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2852392</v>
+        <v>2857332</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>3025542</v>
+        <v>3030568</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4069196540117875</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3944109274140873</v>
+        <v>0.3950939824588517</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4183531029991445</v>
+        <v>0.419047997428903</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>549873</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>509924</v>
+        <v>510815</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>591071</v>
+        <v>596235</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1565038963613463</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.145133616150918</v>
+        <v>0.1453871106208939</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1682295975834142</v>
+        <v>0.1696993130440481</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1260</v>
@@ -1981,19 +1981,19 @@
         <v>763216</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>723491</v>
+        <v>719361</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>806964</v>
+        <v>804631</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2052457152738443</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1945627358949908</v>
+        <v>0.1934520603282967</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2170103870969061</v>
+        <v>0.2163829722829916</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1899</v>
@@ -2002,19 +2002,19 @@
         <v>1313090</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1252839</v>
+        <v>1249510</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1373378</v>
+        <v>1374054</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1815658536382426</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1732347627368749</v>
+        <v>0.1727744777736901</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.189902162130833</v>
+        <v>0.1899956704609439</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>142259</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>119411</v>
+        <v>120492</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>168908</v>
+        <v>169420</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04048944633250411</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03398649280717413</v>
+        <v>0.0342942612172475</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04807429403900705</v>
+        <v>0.04822007415053827</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>403</v>
@@ -2052,19 +2052,19 @@
         <v>240391</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>218527</v>
+        <v>218663</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>264261</v>
+        <v>264800</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06464633114806459</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05876684704720223</v>
+        <v>0.05880342141043044</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07106559337672885</v>
+        <v>0.07121063826261374</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>559</v>
@@ -2073,19 +2073,19 @@
         <v>382649</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>350596</v>
+        <v>350235</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>418953</v>
+        <v>416190</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05291037826935564</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04847823747633829</v>
+        <v>0.04842824854457217</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05793016753940906</v>
+        <v>0.05754809299754084</v>
       </c>
     </row>
     <row r="23">
